--- a/data/F03/DB-PLANTROOM.xlsx
+++ b/data/F03/DB-PLANTROOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zutarilive-my.sharepoint.com/personal/siraaj_bedford_zutari_com/Documents/GitHub/AutoSLD/data/F03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_FB04C3308148C6DEE98EF0137FEB32FEF0C6EE84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251DA3E6-AA97-4707-BC62-2DD941129DCB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_FB04C3308148C6DEE98EF0137FEB32FEF0C6EE84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF52E5B-FE2F-4C07-9020-E5A6F6FA6FCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>Supply From:</t>
   </si>
   <si>
-    <t>DB-METERING</t>
-  </si>
-  <si>
     <t>Phases:</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>Total Est. Demand Current:</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -619,6 +619,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -645,24 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -735,7 +735,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Header!$A$1:$F$9" spid="_x0000_s1034"/>
+                  <a14:cameraTool cellRange="Header!$A$1:$F$9" spid="_x0000_s1040"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -800,7 +800,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Summary!$A$37:$F$44" spid="_x0000_s1035"/>
+                  <a14:cameraTool cellRange="Summary!$A$37:$F$44" spid="_x0000_s1041"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -865,7 +865,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Footer!$A$45:$A$49" spid="_x0000_s1036"/>
+                  <a14:cameraTool cellRange="Footer!$A$45:$A$49" spid="_x0000_s1042"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1204,17 +1204,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="41.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="12" width="6.88671875" customWidth="1"/>
+    <col min="13" max="13" width="41.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1"/>
@@ -1239,22 +1239,22 @@
       <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="35" t="s">
+      <c r="H10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="27" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="10" t="s">
@@ -2201,28 +2201,28 @@
       <c r="B32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="39" t="s">
+      <c r="D32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="39" t="s">
+      <c r="F32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="39" t="s">
+      <c r="H32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="31" t="s">
         <v>5</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -2245,28 +2245,28 @@
       <c r="B33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="32" t="s">
+      <c r="D33" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="32" t="s">
+      <c r="F33" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="32" t="s">
+      <c r="H33" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="38" t="s">
         <v>5</v>
       </c>
       <c r="K33" s="18" t="s">
@@ -2283,10 +2283,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="20" t="s">
@@ -2327,90 +2327,90 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A35" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="28" t="s">
+      <c r="A35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A36" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N36" s="28" t="s">
+      <c r="A36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2429,6 +2429,12 @@
     <row r="49" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A35:N36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
@@ -2436,12 +2442,6 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A35:N36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2453,16 +2453,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
@@ -2510,16 +2512,16 @@
         <v>81</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>5</v>
@@ -2527,19 +2529,19 @@
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>5</v>
@@ -2547,22 +2549,22 @@
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1">
@@ -2587,7 +2589,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>5</v>
@@ -2626,7 +2628,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="42" t="s">
@@ -2660,11 +2662,11 @@
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
+    <col min="2" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="6" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1"/>
@@ -2705,19 +2707,19 @@
     <row r="36" spans="1:6" hidden="1"/>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
       <c r="A37" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="C37" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="D37" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="E37" s="45" t="s">
         <v>95</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>96</v>
       </c>
       <c r="F37" s="46" t="s">
         <v>5</v>
@@ -2725,13 +2727,13 @@
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>18</v>
@@ -2751,16 +2753,16 @@
         <v>11</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
@@ -2768,19 +2770,19 @@
         <v>17</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>103</v>
-      </c>
       <c r="F40" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
@@ -2797,7 +2799,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>71</v>
@@ -2817,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>71</v>
@@ -2877,9 +2879,9 @@
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="165.28515625" customWidth="1"/>
+    <col min="1" max="1" width="165.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1"/>
@@ -2928,7 +2930,7 @@
     <row r="44" spans="1:1" hidden="1"/>
     <row r="45" spans="1:1" ht="13.5" customHeight="1">
       <c r="A45" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="13.5" customHeight="1">
